--- a/ToolboxForSimulator/condition/Condition.xlsx
+++ b/ToolboxForSimulator/condition/Condition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaceclub\Documents\実験\ToolboxForSimulator\condition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaceclub\Documents\実験\3ME1_Experiment10\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F61FFD3-9E8A-426F-9ADC-4A6C2BDA3263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D8DA3-3118-4A1D-AF47-81902681A8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>double</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>TempDefinition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manometer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Upstream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Downstream</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -404,23 +416,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57904653-7C37-444B-B87D-9D6BA66A5BD4}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -439,8 +454,17 @@
       <c r="F2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>357</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,8 +483,17 @@
       <c r="F3" t="s">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>358.4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -480,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
